--- a/EnvNP_Laos.xlsx
+++ b/EnvNP_Laos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuvvvvv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76A4A33F-2045-1142-97AE-33C69DF4DDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC8FA1F-F1A5-AC43-96D5-E0D77D83405A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="500" windowWidth="27640" windowHeight="15320" xr2:uid="{2D3D069F-FD84-BE43-B09A-D2AF8E5BB95D}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15320" xr2:uid="{2D3D069F-FD84-BE43-B09A-D2AF8E5BB95D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>Association Anoulak</t>
   </si>
@@ -301,12 +301,42 @@
   <si>
     <t>Provinces of Vientiane and Savannakhet and operates mainly in remote villages</t>
   </si>
+  <si>
+    <t>Name of organisation</t>
+  </si>
+  <si>
+    <t>Description of organisation</t>
+  </si>
+  <si>
+    <t>Mission/ Objectives/ Purpose</t>
+  </si>
+  <si>
+    <t>Programmes/ projects</t>
+  </si>
+  <si>
+    <t>Funding sources</t>
+  </si>
+  <si>
+    <t>Collaboration with government / businesses</t>
+  </si>
+  <si>
+    <t>Choice of Climate action</t>
+  </si>
+  <si>
+    <t>No. of employees</t>
+  </si>
+  <si>
+    <t>Geographical focus</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,8 +358,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +376,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -355,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -364,6 +406,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -680,73 +725,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E87E77-1974-074C-AA25-326C0B373F94}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J11"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
+    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
+      <c r="H2" s="2">
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>8</v>
@@ -754,25 +799,25 @@
     </row>
     <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -786,22 +831,22 @@
     </row>
     <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>23</v>
@@ -818,28 +863,28 @@
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>16</v>
@@ -848,65 +893,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="342" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="342" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>44</v>
+      <c r="H7" s="2">
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
@@ -914,95 +959,95 @@
     </row>
     <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>8</v>
@@ -1010,49 +1055,81 @@
     </row>
     <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{AB28B35B-02AA-6C43-98A6-B89DC793AB65}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{E33B8E59-796A-5D4D-ACCC-33A744DFD2AE}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{BEAF2C20-305B-E045-B7E5-C77C05053179}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{84492C69-973B-564C-BADD-F8A0299913BA}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{A96B5652-B8E3-DB4D-B5D3-E840CEF2EE37}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{59281586-F3DD-6B44-A8EB-D070E9A40E28}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{6DC80644-6488-7A43-8E96-943E981580E8}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{01A8789F-03E5-B84B-B6C5-DFAAD08574A6}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{875FC125-2AF7-4C49-B083-2A1A3B3AC77F}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{6176F22A-73D0-934C-AA2A-7BDC87EF31AB}"/>
-    <hyperlink ref="A11" r:id="rId11" xr:uid="{971DC3A1-D046-0E41-92C1-58BF11ABAD99}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{AB28B35B-02AA-6C43-98A6-B89DC793AB65}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{E33B8E59-796A-5D4D-ACCC-33A744DFD2AE}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{BEAF2C20-305B-E045-B7E5-C77C05053179}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{84492C69-973B-564C-BADD-F8A0299913BA}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{A96B5652-B8E3-DB4D-B5D3-E840CEF2EE37}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{59281586-F3DD-6B44-A8EB-D070E9A40E28}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{6DC80644-6488-7A43-8E96-943E981580E8}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{01A8789F-03E5-B84B-B6C5-DFAAD08574A6}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{875FC125-2AF7-4C49-B083-2A1A3B3AC77F}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{6176F22A-73D0-934C-AA2A-7BDC87EF31AB}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{971DC3A1-D046-0E41-92C1-58BF11ABAD99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
